--- a/Excel/GS Gerüstung/Durchlaufträger Rechner.xlsx
+++ b/Excel/GS Gerüstung/Durchlaufträger Rechner.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://schweizerischebau.sharepoint.com/sites/HTy-25/Shared Documents/General/Berechnungshilfen/GS Gerüstung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremymeile/Documents/Berechnungshilfen/Excel/GS Gerüstung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{92429F14-D6E1-4EF2-B836-209C98B55C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98E92D98-B860-4E6A-BA05-84A88A09458F}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ssEdqG0pXdnm6UwUiQoDo/+GRJOLeAevGXav9Qv1zPK0gzBqW20FFeqfkkbQgRn6rUv45kvfSYrvjeAqr0a1xg==" workbookSaltValue="x+KmbaRwElIcI/77Pid51Q==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12E1EB1-7DFF-0342-85C3-DC5A8AD88E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="1160" windowWidth="20000" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="23020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Berechnungen" sheetId="1" r:id="rId1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="111">
   <si>
     <t>Durchlaufträgerberechnung</t>
   </si>
@@ -128,9 +127,6 @@
   </si>
   <si>
     <t>Lösungsweg</t>
-  </si>
-  <si>
-    <t>Linienlast (q')</t>
   </si>
   <si>
     <t>kN/m</t>
@@ -477,6 +473,48 @@
   <si>
     <t>6 Felder</t>
   </si>
+  <si>
+    <t>berechnete Linienlast (q') von oben</t>
+  </si>
+  <si>
+    <t>gewählte Linienlast (q')</t>
+  </si>
+  <si>
+    <t>Querkräfte</t>
+  </si>
+  <si>
+    <t>Moment</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
+    <t>m7</t>
+  </si>
 </sst>
 </file>
 
@@ -487,7 +525,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,7 +708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -999,6 +1037,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1007,7 +1060,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1090,6 +1143,14 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
@@ -1191,16 +1252,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1282,7 +1343,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Berechnungen!$A$26</c:f>
+              <c:f>Berechnungen!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1316,6 +1377,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E892-5747-A7DF-6E4BCCBAB07B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E892-5747-A7DF-6E4BCCBAB07B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1330,11 +1411,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="accent1">
                         <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1342,7 +1422,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="l"/>
@@ -1375,9 +1455,9 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Rundungen!$C$1:$C$16</c:f>
+              <c:f>Rundungen!$D$2:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1409,30 +1489,12 @@
                 <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Rundungen!$B$1:$B$16</c:f>
+              <c:f>Rundungen!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1440,46 +1502,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6532240000000002</c:v>
+                  <c:v>1379.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.5427760000000004</c:v>
+                  <c:v>-2130.5699999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2154880000000001</c:v>
+                  <c:v>1881.3600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.9805120000000005</c:v>
+                  <c:v>-1628.6399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0686279999999999</c:v>
+                  <c:v>1628.6400000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.1273720000000007</c:v>
+                  <c:v>-1881.3599999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0979999999999994</c:v>
+                  <c:v>2130.5700000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.0980000000000012</c:v>
+                  <c:v>-1379.4299999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1273719999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.0686280000000017</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9805119999999987</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.2154880000000019</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5427759999999986</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.653224000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1491,6 +1553,249 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-663C-4D46-A500-FF25F400A7DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Momentenverlauf</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Rundungen!$C$22:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Rundungen!$E$22:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2709.7200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3759.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1277.6400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2506.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1277.6400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2709.7200000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E892-5747-A7DF-6E4BCCBAB07B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Strecke</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Rundungen!$A$41:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Rundungen!$B$41:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E892-5747-A7DF-6E4BCCBAB07B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1509,8 +1814,9 @@
         <c:axId val="172810479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1530,6 +1836,39 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="726260223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1541,7 +1880,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1561,6 +1900,39 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="172810479"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1575,15 +1947,9 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1606,7 +1972,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2179,13 +2545,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3641090</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2213,11 +2579,55 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107758</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>91538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541866</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>162405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674D48B6-2FDC-2DD1-C4A4-A48FB73EF7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8682182" y="12060326"/>
+          <a:ext cx="3112654" cy="1056079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3ADE5634-0A75-8A4A-A586-11828C3F09D7}" name="Tabelle2" displayName="Tabelle2" ref="A1:B16" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3ADE5634-0A75-8A4A-A586-11828C3F09D7}" name="Tabelle2" displayName="Tabelle2" ref="A1:B16" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="A1:B16" xr:uid="{3ADE5634-0A75-8A4A-A586-11828C3F09D7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B885EC0A-CABF-854B-A10E-18B75A743E01}" name="Deckenstärke [cm]"/>
@@ -2544,21 +2954,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D81"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="165" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" thickBot="1">
+    <row r="1" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -2568,8 +2979,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95" thickBot="1"/>
-    <row r="3" spans="1:4" ht="15.95" thickBot="1">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>2</v>
       </c>
@@ -2581,24 +2992,24 @@
       </c>
       <c r="D3" s="62"/>
     </row>
-    <row r="4" spans="1:4" ht="15.95">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.95">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="64">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2607,7 +3018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.95">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>11</v>
       </c>
@@ -2621,7 +3032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.95">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
@@ -2635,7 +3046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.95">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>14</v>
       </c>
@@ -2648,7 +3059,7 @@
       </c>
       <c r="D8" s="57"/>
     </row>
-    <row r="9" spans="1:4" ht="15.95">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>16</v>
       </c>
@@ -2662,7 +3073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.100000000000001" thickBot="1">
+    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>18</v>
       </c>
@@ -2674,8 +3085,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.95" thickBot="1"/>
-    <row r="12" spans="1:4" ht="15.95" thickBot="1">
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
@@ -2689,841 +3100,901 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B13" s="17">
         <f>(B8*B7)</f>
         <v>5.2450000000000001</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="19" t="str">
+        <v>22</v>
+      </c>
+      <c r="D13" s="71" t="str">
         <f>B8 &amp; " kN/m * " &amp; ROUND(B7, B10) &amp; " m = " &amp; ROUND(B8 * ROUND(B7, B10), B10) &amp; " kN"</f>
         <v>10.49 kN/m * 0.5 m = 5.245 kN</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="72">
+        <v>351</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="21">
+        <f>(B14*B5)</f>
+        <v>3510</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="21">
-        <f>(B13*B5)</f>
-        <v>4.1960000000000006</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="D15" s="23" t="str">
+        <f>B14 &amp; " kN * " &amp; ROUND(B5, B10) &amp; " = " &amp; ROUND(B14 * ROUND(B5, B10), B10) &amp; " kN"</f>
+        <v>351 kN * 10 = 3510 kN</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="23" t="str">
-        <f>B13 &amp; " kN * " &amp; ROUND(B5, B10) &amp; " = " &amp; ROUND(B13 * ROUND(B5, B10), B10) &amp; " kN"</f>
-        <v>5.245 kN * 0.8 = 4.196 kN</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.95" thickBot="1"/>
-    <row r="16" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A16" s="13" t="s">
+      <c r="B17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B18" s="10">
+        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$B$7,2,FALSE)*B15</f>
+        <v>1379.43</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="25" t="str">
+        <f>IF(B18=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$B$7, 2, FALSE) &amp; " * " &amp; ROUND(B15, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$B$7, 2, FALSE) * ROUND(B15, B10), B10) &amp; " kN")</f>
+        <v>0.393 * 3510 kN = 1379.43 kN</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="10">
+        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$C$7,3,FALSE)*B15</f>
+        <v>4011.93</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="19" t="str">
+        <f>IF(B19=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$C$7, 3, FALSE) &amp; " * " &amp; ROUND(B15, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$C$7, 3, FALSE) * ROUND(B15, B10), B10) &amp; " kN")</f>
+        <v>1.143 * 3510 kN = 4011.93 kN</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="10">
+        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$D$7,4,FALSE)*B15</f>
+        <v>3257.28</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="19" t="str">
+        <f>IF(B20=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$D$7, 4, FALSE) &amp; " * " &amp; ROUND(B15, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$D$7, 4, FALSE) * ROUND(B15, B10), B10) &amp; " kN")</f>
+        <v>0.928 * 3510 kN = 3257.28 kN</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="10">
+        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$E$7,5,FALSE)*B15</f>
+        <v>4011.93</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="19" t="str">
+        <f>IF(B21=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$E$7, 5, FALSE) &amp; " * " &amp; ROUND(B15, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$E$7, 5, FALSE) * ROUND(B15, B10), B10) &amp; " kN")</f>
+        <v>1.143 * 3510 kN = 4011.93 kN</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$F$7,6,FALSE)*B15</f>
+        <v>1379.43</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="19" t="str">
+        <f>IF(B22=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$F$7, 6, FALSE) &amp; " * " &amp; ROUND(B15, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$F$7, 6, FALSE) * ROUND(B15, B10), B10) &amp; " kN")</f>
+        <v>0.393 * 3510 kN = 1379.43 kN</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="10">
+        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$G$7,7,FALSE)*B15</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="19" t="str">
+        <f>IF(B23=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$G$7, 7, FALSE) &amp; " * " &amp; ROUND(B15, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$G$7, 7, FALSE) * ROUND(B15, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="10">
+        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$H$7,8,FALSE)*B15</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="19" t="str">
+        <f>IF(B24=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$H$7, 8, FALSE) &amp; " * " &amp; ROUND(B15, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$H$7, 8, FALSE) * ROUND(B15, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="11">
+        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$I$7, 9, FALSE) * B15</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="23" t="str">
+        <f>IF(B25=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$I$7, 9, FALSE) &amp; " * " &amp; ROUND(B15, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$I$7, 9, FALSE) * ROUND(B15, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+    </row>
+    <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="10">
-        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$B$7,2,FALSE)*B14</f>
-        <v>1.6532240000000002</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="25" t="str">
-        <f>IF(B17=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$B$7, 2, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$B$7, 2, FALSE) * ROUND(B14, B10), B10) &amp; " kN")</f>
-        <v>0.394 * 4.196 kN = 1.653 kN</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="10">
-        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$C$7,3,FALSE)*B14</f>
-        <v>4.7582640000000005</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="19" t="str">
-        <f>IF(B18=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$C$7, 3, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$C$7, 3, FALSE) * ROUND(B14, B10), B10) &amp; " kN")</f>
-        <v>1.134 * 4.196 kN = 4.758 kN</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="10">
-        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$D$7,4,FALSE)*B14</f>
-        <v>4.0491400000000004</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="19" t="str">
-        <f>IF(B19=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$D$7, 4, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$D$7, 4, FALSE) * ROUND(B14, B10), B10) &amp; " kN")</f>
-        <v>0.965 * 4.196 kN = 4.049 kN</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="10">
-        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$E$7,5,FALSE)*B14</f>
-        <v>4.2253720000000001</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="19" t="str">
-        <f>IF(B20=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$E$7, 5, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$E$7, 5, FALSE) * ROUND(B14, B10), B10) &amp; " kN")</f>
-        <v>1.007 * 4.196 kN = 4.225 kN</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="10">
-        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$F$7,6,FALSE)*B14</f>
-        <v>4.2253720000000001</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="19" t="str">
-        <f>IF(B21=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$F$7, 6, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$F$7, 6, FALSE) * ROUND(B14, B10), B10) &amp; " kN")</f>
-        <v>1.007 * 4.196 kN = 4.225 kN</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="10">
-        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$G$7,7,FALSE)*B14</f>
-        <v>4.0491400000000004</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="19" t="str">
-        <f>IF(B22=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$G$7, 7, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$G$7, 7, FALSE) * ROUND(B14, B10), B10) &amp; " kN")</f>
-        <v>0.965 * 4.196 kN = 4.049 kN</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="10">
-        <f>VLOOKUP(B4,'Durchlaufende Träger'!$A$2:$H$7,8,FALSE)*B14</f>
-        <v>4.7582640000000005</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="19" t="str">
-        <f>IF(B23=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$H$7, 8, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$H$7, 8, FALSE) * ROUND(B14, B10), B10) &amp; " kN")</f>
-        <v>1.134 * 4.196 kN = 4.758 kN</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A24" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="11">
-        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$I$7, 9, FALSE) * B14</f>
-        <v>1.6532240000000002</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="23" t="str">
-        <f>IF(B24=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$I$7, 9, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$I$7, 9, FALSE) * ROUND(B14, B10), B10) &amp; " kN")</f>
-        <v>0.394 * 4.196 kN = 1.653 kN</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A25" s="34"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A26" s="13" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="24" t="s">
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B29" s="10">
+        <f>IF(B18=0,"",IF(ABS(B18) &lt; 0.01, 0, B18))</f>
+        <v>1379.43</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="36"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="10">
+        <f>IF(OR(B18=0, B18=""), "", IF(ABS(B29 - $B$14 * $B$5) &lt; 0.01, 0, B29 - $B$14 * $B$5))</f>
+        <v>-2130.5699999999997</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="19" t="str">
+        <f>IF(OR(B30=0, B18=""), "", ROUND(B29, B10) &amp; " kN - " &amp; ROUND($B$14, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B29, B10) - ROUND($B$14 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
+        <v>1379.43 kN - 351 kN * 10 = -2130.57 kN</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="10">
+        <f>IF(OR(B19=0, B19=""), "", IF(ABS(B19 + B30) &lt; 0.01, 0, B19 + B30))</f>
+        <v>1881.3600000000001</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="19" t="str">
+        <f>IF(OR(B31=0, B31=""), "", ROUND(B19, B10) &amp; " kN + " &amp; ROUND(B30, B10) &amp; " kN = " &amp; ROUND(ROUND(B19, B10) + ROUND(B30, B10), B10) &amp; " kN")</f>
+        <v>4011.93 kN + -2130.57 kN = 1881.36 kN</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="10">
+        <f>IF(OR(B31=0, B31=""), "", IF(ABS(B31 - $B$14 * $B$5) &lt; 0.01, 0, B31 - $B$14 * $B$5))</f>
+        <v>-1628.6399999999999</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="19" t="str">
+        <f>IF(OR(B32=0, B32=""), "", ROUND(B31, B10) &amp; " kN - " &amp; ROUND($B$14, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B31, B10) - ROUND($B$14 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
+        <v>1881.36 kN - 351 kN * 10 = -1628.64 kN</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="10">
+        <f>IF(OR(B20=0, B20=""), "", IF(ABS(B32 + B20) &lt; 0.01, 0, B32 + B20))</f>
+        <v>1628.6400000000003</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="19" t="str">
+        <f>IF(OR(B33=0, B33=""), "", ROUND(B32, B10) &amp; " kN + " &amp; ROUND(B20, B10) &amp; " kN = " &amp; ROUND(ROUND(B32, B10) + ROUND(B20, B10), B10) &amp; " kN")</f>
+        <v>-1628.64 kN + 3257.28 kN = 1628.64 kN</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="10">
+        <f>IF(OR(B33=0, B33=""), "", IF(ABS(B33 - $B$14 * $B$5) &lt; 0.01, 0, B33 - $B$14 * $B$5))</f>
+        <v>-1881.3599999999997</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="19" t="str">
+        <f>IF(OR(B34=0, B34=""), "", ROUND(B33, B10) &amp; " kN - " &amp; ROUND($B$14, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B33, B10) - ROUND($B$14 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
+        <v>1628.64 kN - 351 kN * 10 = -1881.36 kN</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="10">
+        <f>IF(OR(B21=0, B21=""), "", IF(ABS(B34 + B21) &lt; 0.01, 0, B34 + B21))</f>
+        <v>2130.5700000000002</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="19" t="str">
+        <f>IF(OR(B35=0, B35=""), "", ROUND(B34, B10) &amp; " kN + " &amp; ROUND(B21, B10) &amp; " kN = " &amp; ROUND(ROUND(B34, B10) + ROUND(B21, B10), B10) &amp; " kN")</f>
+        <v>-1881.36 kN + 4011.93 kN = 2130.57 kN</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="10">
+        <f>IF(OR(B35=0, B35=""), "", IF(ABS(B35 - B14 * B5) &lt; 0.01, 0, B35 - B14 * B5))</f>
+        <v>-1379.4299999999998</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="19" t="str">
+        <f>IF(OR(B36=0, B36=""), "", ROUND(B35, B10) &amp; " kN - " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; " = " &amp; ROUND(ROUND(B35, B10) - ROUND(B14 * ROUND(B5, B10), B10), B10) &amp; " kN")</f>
+        <v>2130.57 kN - 351 kN * 10 = -1379.43 kN</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="10">
+        <f>IF(OR(B22=0, B22=""), "", IF(ABS(B36 + B22) &lt; 0.01, 0, B36 + B22))</f>
         <v>0</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="10">
-        <f>IF(B17=0,"",IF(ABS(B17) &lt; 0.01, 0, B17))</f>
-        <v>1.6532240000000002</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="36"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="10">
-        <f>IF(OR(B17=0, B17=""), "", IF(ABS(B28 - $B$13 * $B$5) &lt; 0.01, 0, B28 - $B$13 * $B$5))</f>
-        <v>-2.5427760000000004</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="19" t="str">
-        <f>IF(OR(B29=0, B17=""), "", ROUND(B28, B10) &amp; " kN - " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B28, B10) - ROUND($B$13 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
-        <v>1.653 kN - 5.245 kN * 0.8 = -2.543 kN</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="10">
-        <f>IF(OR(B18=0, B18=""), "", IF(ABS(B18 + B29) &lt; 0.01, 0, B18 + B29))</f>
-        <v>2.2154880000000001</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="19" t="str">
-        <f>IF(OR(B30=0, B30=""), "", ROUND(B18, B10) &amp; " kN + " &amp; ROUND(B29, B10) &amp; " kN = " &amp; ROUND(ROUND(B18, B10) + ROUND(B29, B10), B10) &amp; " kN")</f>
-        <v>4.758 kN + -2.543 kN = 2.215 kN</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="10">
-        <f>IF(OR(B30=0, B30=""), "", IF(ABS(B30 - $B$13 * $B$5) &lt; 0.01, 0, B30 - $B$13 * $B$5))</f>
-        <v>-1.9805120000000005</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="19" t="str">
-        <f>IF(OR(B31=0, B31=""), "", ROUND(B30, B10) &amp; " kN - " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B30, B10) - ROUND($B$13 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
-        <v>2.215 kN - 5.245 kN * 0.8 = -1.981 kN</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="10">
-        <f>IF(OR(B19=0, B19=""), "", IF(ABS(B31 + B19) &lt; 0.01, 0, B31 + B19))</f>
-        <v>2.0686279999999999</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="19" t="str">
-        <f>IF(OR(B32=0, B32=""), "", ROUND(B31, B10) &amp; " kN + " &amp; ROUND(B19, B10) &amp; " kN = " &amp; ROUND(ROUND(B31, B10) + ROUND(B19, B10), B10) &amp; " kN")</f>
-        <v>-1.981 kN + 4.049 kN = 2.068 kN</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="10">
-        <f>IF(OR(B32=0, B32=""), "", IF(ABS(B32 - $B$13 * $B$5) &lt; 0.01, 0, B32 - $B$13 * $B$5))</f>
-        <v>-2.1273720000000007</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="19" t="str">
-        <f>IF(OR(B33=0, B33=""), "", ROUND(B32, B10) &amp; " kN - " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B32, B10) - ROUND($B$13 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
-        <v>2.069 kN - 5.245 kN * 0.8 = -2.127 kN</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="10">
-        <f>IF(OR(B20=0, B20=""), "", IF(ABS(B33 + B20) &lt; 0.01, 0, B33 + B20))</f>
-        <v>2.0979999999999994</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="19" t="str">
-        <f>IF(OR(B34=0, B34=""), "", ROUND(B33, B10) &amp; " kN + " &amp; ROUND(B20, B10) &amp; " kN = " &amp; ROUND(ROUND(B33, B10) + ROUND(B20, B10), B10) &amp; " kN")</f>
-        <v>-2.127 kN + 4.225 kN = 2.098 kN</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="10">
-        <f>IF(OR(B34=0, B34=""), "", IF(ABS(B34 - B13 * B5) &lt; 0.01, 0, B34 - B13 * B5))</f>
-        <v>-2.0980000000000012</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="19" t="str">
-        <f>IF(OR(B35=0, B35=""), "", ROUND(B34, B10) &amp; " kN - " &amp; ROUND(B13, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; " = " &amp; ROUND(ROUND(B34, B10) - ROUND(B13 * ROUND(B5, B10), B10), B10) &amp; " kN")</f>
-        <v>2.098 kN - 5.245 kN * 0.8 = -2.098 kN</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="30" t="s">
+      <c r="C37" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="19" t="str">
+        <f>IF(OR(B37=0, B37=""), "", ROUND(B36, B10) &amp; " kN + " &amp; ROUND(B22, B10) &amp; " kN = " &amp; ROUND(ROUND(B36, B10) + ROUND(B22, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="10">
-        <f>IF(OR(B21=0, B21=""), "", IF(ABS(B35 + B21) &lt; 0.01, 0, B35 + B21))</f>
-        <v>2.1273719999999989</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="19" t="str">
-        <f>IF(OR(B36=0, B36=""), "", ROUND(B35, B10) &amp; " kN + " &amp; ROUND(B21, B10) &amp; " kN = " &amp; ROUND(ROUND(B35, B10) + ROUND(B21, B10), B10) &amp; " kN")</f>
-        <v>-2.098 kN + 4.225 kN = 2.127 kN</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="31" t="s">
+      <c r="B38" s="10" t="str">
+        <f>IF(OR(B37=0,B37=""),"",IF(ABS(B37-$B$14*$B$5)&lt;0.01,0,B37-$B$14*$B$5))</f>
+        <v/>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="19" t="str">
+        <f>IF(OR(B38=0, B38=""), "", ROUND(B37, B10) &amp; " kN - " &amp; ROUND($B$14, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B37, B10) - ROUND($B$14 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="10">
-        <f>IF(OR(B36=0,B36=""),"",IF(ABS(B36-$B$13*$B$5)&lt;0.01,0,B36-$B$13*$B$5))</f>
-        <v>-2.0686280000000017</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="19" t="str">
-        <f>IF(OR(B37=0, B37=""), "", ROUND(B36, B10) &amp; " kN - " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B36, B10) - ROUND($B$13 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
-        <v>2.127 kN - 5.245 kN * 0.8 = -2.069 kN</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="31" t="s">
+      <c r="B39" s="10" t="str">
+        <f>IF(OR(B23=0, B23=""), "", IF(ABS(B38 + B23) &lt; 0.01, 0,B38 + B23))</f>
+        <v/>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="19" t="str">
+        <f>IF(OR(B39=0, B39=""), "", ROUND(B38, B10) &amp; " kN + " &amp; ROUND(B23, B10) &amp; " kN = " &amp; ROUND(ROUND(B38, B10) + ROUND(B23, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="10">
-        <f>IF(OR(B22=0, B22=""), "", IF(ABS(B37 + B22) &lt; 0.01, 0,B37 + B22))</f>
-        <v>1.9805119999999987</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="19" t="str">
-        <f>IF(OR(B38=0, B38=""), "", ROUND(B37, B10) &amp; " kN + " &amp; ROUND(B22, B10) &amp; " kN = " &amp; ROUND(ROUND(B37, B10) + ROUND(B22, B10), B10) &amp; " kN")</f>
-        <v>-2.069 kN + 4.049 kN = 1.98 kN</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="32" t="s">
+      <c r="B40" s="10" t="str">
+        <f>IF(OR(B39=0, B39=""), "", IF(ABS(B39 - $B$14 * $B$5) &lt; 0.01, 0,B39 - $B$14 * $B$5))</f>
+        <v/>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="19" t="str">
+        <f>IF(OR(B40=0, B40=""), "", ROUND(B39, B10) &amp; " kN - " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B39, B10) - ROUND($B$13 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="10">
-        <f>IF(OR(B38=0, B38=""), "", IF(ABS(B38 - $B$13 * $B$5) &lt; 0.01, 0,B38 - $B$13 * $B$5))</f>
-        <v>-2.2154880000000019</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="19" t="str">
-        <f>IF(OR(B39=0, B39=""), "", ROUND(B38, B10) &amp; " kN - " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B38, B10) - ROUND($B$13 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
-        <v>1.981 kN - 5.245 kN * 0.8 = -2.215 kN</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="32" t="s">
+      <c r="B41" s="10" t="str">
+        <f>IF(OR(B24=0, B24=""), "", IF(ABS(B40 + B24) &lt; 0.01, 0, B40 + B24))</f>
+        <v/>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="19" t="str">
+        <f>IF(OR(B41=0, B41=""), "", ROUND(B40, B10) &amp; " kN + " &amp; ROUND(B24, B10) &amp; " kN = " &amp; ROUND(ROUND(B40, B10) + ROUND(B24, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="10">
-        <f>IF(OR(B23=0, B23=""), "", IF(ABS(B39 + B23) &lt; 0.01, 0, B39 + B23))</f>
-        <v>2.5427759999999986</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="19" t="str">
-        <f>IF(OR(B40=0, B40=""), "", ROUND(B39, B10) &amp; " kN + " &amp; ROUND(B23, B10) &amp; " kN = " &amp; ROUND(ROUND(B39, B10) + ROUND(B23, B10), B10) &amp; " kN")</f>
-        <v>-2.215 kN + 4.758 kN = 2.543 kN</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="37" t="s">
+      <c r="B42" s="10" t="str">
+        <f>IF(OR(B41=0, B41=""), "", IF(ABS(B41 - $B$14 * $B$5) &lt; 0.01, 0, B41 - $B$14 * $B$5))</f>
+        <v/>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="19" t="str">
+        <f>IF(OR(B42=0, B42=""), "", ROUND(B41, B10) &amp; " kN - " &amp; ROUND($B$14, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B41, B10) - ROUND($B$14 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="10" t="str">
+        <f>IF(OR(B25=0, B25=""), "", IF(ABS(B42 + B25) &lt; 0.01, 0, B42 + B25))</f>
+        <v/>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="19" t="str">
+        <f>IF(OR(B25=0, B25=""), "", ROUND(B42, B10) &amp; " kN + " &amp; ROUND(B25, B10) &amp; " kN = " &amp; IF(ABS(ROUND(B42 + B25, B10)) &lt; 0.01, 0, ROUND(B42 + B25, B10)) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="10">
-        <f>IF(OR(B40=0, B40=""), "", IF(ABS(B40 - $B$13 * $B$5) &lt; 0.01, 0, B40 - $B$13 * $B$5))</f>
-        <v>-1.653224000000002</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="19" t="str">
-        <f>IF(OR(B41=0, B41=""), "", ROUND(B40, B10) &amp; " kN - " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; " = " &amp; ROUND(ROUND(B40, B10) - ROUND($B$13 * ROUND($B$5, B10), B10), B10) &amp; " kN")</f>
-        <v>2.543 kN - 5.245 kN * 0.8 = -1.653 kN</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A42" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="10">
-        <f>IF(OR(B24=0, B24=""), "", IF(ABS(B41 + B24) &lt; 0.01, 0, B41 + B24))</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="19" t="str">
-        <f>IF(OR(B24=0, B24=""), "", ROUND(B41, B10) &amp; " kN + " &amp; ROUND(B24, B10) &amp; " kN = " &amp; IF(ABS(ROUND(B41 + B24, B10)) &lt; 0.01, 0, ROUND(B41 + B24, B10)) &amp; " kN")</f>
-        <v>-1.653 kN + 1.653 kN = 0 kN</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A43" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="69" cm="1">
-        <f t="array" ref="B43">_xlfn.AGGREGATE(14,6,ABS(B28:B41),1)</f>
-        <v>2.5427760000000004</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="41"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="D45" s="36"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B44" s="69" cm="1">
+        <f t="array" ref="B44">_xlfn.AGGREGATE(14,6,ABS(B29:B42),1)</f>
+        <v>2130.5700000000002</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="41"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
       <c r="B46" s="47"/>
       <c r="D46" s="36"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="46"/>
       <c r="B47" s="47"/>
       <c r="D47" s="36"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="46"/>
       <c r="B48" s="47"/>
       <c r="D48" s="36"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
       <c r="B49" s="47"/>
       <c r="D49" s="36"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
       <c r="B50" s="47"/>
       <c r="D50" s="36"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="46"/>
       <c r="B51" s="47"/>
       <c r="D51" s="36"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
       <c r="B52" s="47"/>
       <c r="D52" s="36"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
       <c r="B53" s="47"/>
       <c r="D53" s="36"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
       <c r="B54" s="47"/>
       <c r="D54" s="36"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
       <c r="B55" s="47"/>
       <c r="D55" s="36"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
       <c r="B56" s="47"/>
       <c r="D56" s="36"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="46"/>
       <c r="B57" s="47"/>
       <c r="D57" s="36"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="46"/>
       <c r="B58" s="47"/>
       <c r="D58" s="36"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
       <c r="B59" s="47"/>
       <c r="D59" s="36"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="46"/>
       <c r="B60" s="47"/>
       <c r="D60" s="36"/>
     </row>
-    <row r="61" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A61" s="48"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="51"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.95" thickBot="1"/>
-    <row r="63" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A63" s="13" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
+      <c r="D61" s="36"/>
+    </row>
+    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="51"/>
+    </row>
+    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B65" s="53">
+        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 10, FALSE) * B14 * B5^2</f>
+        <v>2709.7200000000003</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="25" t="str">
+        <f>IF(B65=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 10, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "² = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 10, FALSE) * ROUND(B14, B10) * ROUND(B5^2, B10), B10) &amp; " kN")</f>
+        <v>0.0772 * 351 kN * 10² = 2709.72 kN</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="53">
+        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 11, FALSE) * B14 * B5^2</f>
+        <v>1277.6400000000001</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="19" t="str">
+        <f>IF(B66=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 11, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "² = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 11, FALSE) * ROUND(B14, B10) * ROUND(B5^2, B10), B10) &amp; " kN")</f>
+        <v>0.0364 * 351 kN * 10² = 1277.64 kN</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="53">
+        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 12, FALSE) * B14 * B5^2</f>
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="19" t="str">
+        <f>IF(B67=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 12, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "² = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 12, FALSE) * ROUND(B14, B10) * ROUND(B5^2, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="53">
+        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 13, FALSE) * B14 * B5^2</f>
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="19" t="str">
+        <f>IF(B68=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 13, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "² = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 13, FALSE) * ROUND(B14, B10) * ROUND(B5^2, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="53">
+        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 12, FALSE) * B14 * B5^2</f>
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="19" t="str">
+        <f>IF(B67=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 12, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "² = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 12, FALSE) * ROUND(B14, B10) * ROUND(B5^2, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="53">
+        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 11, FALSE) * B14 * B5^2</f>
+        <v>1277.6400000000001</v>
+      </c>
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="19" t="str">
+        <f>IF(B66=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 11, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "² = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 11, FALSE) * ROUND(B14, B10) * ROUND(B5^2, B10), B10) &amp; " kN")</f>
+        <v>0.0364 * 351 kN * 10² = 1277.64 kN</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="53">
+        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 10, FALSE) * B14 * B5^2</f>
+        <v>2709.7200000000003</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="19" t="str">
+        <f>IF(B65=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 10, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "² = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 10, FALSE) * ROUND(B14, B10) * ROUND(B5^2, B10), B10) &amp; " kN")</f>
+        <v>0.0772 * 351 kN * 10² = 2709.72 kN</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="53">
+        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 14, FALSE) * $B$14 * $B$5^2</f>
+        <v>-3759.21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="19" t="str">
+        <f>IF(B72=B133, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 14, FALSE) &amp; " * " &amp; ROUND($B$14, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 14, FALSE) * ROUND($B$14, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
+        <v>-0.1071 * 351 kN * 10² = -3759.21 kN</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="53">
+        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 15, FALSE) * $B$14 * $B$5^2</f>
+        <v>-2506.1400000000003</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="19" t="str">
+        <f>IF(B73=0, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 15, FALSE) &amp; " * " &amp; ROUND($B$14, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 15, FALSE) * ROUND($B$14, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
+        <v>-0.0714 * 351 kN * 10² = -2506.14 kN</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="53">
+        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 16, FALSE) * $B$14 * $B$5^2</f>
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="19" t="str">
+        <f>IF(B74=0, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 16, FALSE) &amp; " * " &amp; ROUND($B$14, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 16, FALSE) * ROUND($B$14, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="53">
+        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 17, FALSE) * $B$14 * $B$5^2</f>
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="19" t="str">
+        <f>IF(B75=0, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 17, FALSE) &amp; " * " &amp; ROUND($B$14, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 17, FALSE) * ROUND($B$14, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="53">
+        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 18, FALSE) * $B$14 * $B$5^2</f>
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="19" t="str">
+        <f>IF(B76=0, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 18, FALSE) &amp; " * " &amp; ROUND($B$14, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 18, FALSE) * ROUND($B$14, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="55">
+        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 19, FALSE) * $B$14 * $B$5^2</f>
+        <v>0</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="23" t="str">
+        <f>IF(B77=0, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 19, FALSE) &amp; " * " &amp; ROUND($B$14, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 19, FALSE) * ROUND($B$14, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="70" cm="1">
+        <f t="array" ref="B78">_xlfn.AGGREGATE(14, 6, ABS(ROUND(B65:B77, B10)), 1)</f>
+        <v>3759.21</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="41"/>
+    </row>
+    <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D80" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" s="53">
-        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 10, FALSE) * B13 * B5^2</f>
-        <v>0.26115904000000001</v>
-      </c>
-      <c r="C64" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="25" t="str">
-        <f>IF(B64=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 10, FALSE) &amp; " * " &amp; ROUND(B13, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "² = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 10, FALSE) * ROUND(B13, B10) * ROUND(B5^2, B10), B10) &amp; " kN")</f>
-        <v>0.0778 * 5.245 kN * 0.8² = 0.261 kN</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="53">
-        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 11, FALSE) * B13 * B5^2</f>
-        <v>0.11345984000000002</v>
-      </c>
-      <c r="C65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="19" t="str">
-        <f>IF(B65=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 11, FALSE) &amp; " * " &amp; ROUND(B13, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "² = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 11, FALSE) * ROUND(B13, B10) * ROUND(B5^2, B10), B10) &amp; " kN")</f>
-        <v>0.0338 * 5.245 kN * 0.8² = 0.113 kN</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="53">
-        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 12, FALSE) * B13 * B5^2</f>
-        <v>0.14769920000000003</v>
-      </c>
-      <c r="C66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="19" t="str">
-        <f>IF(B66=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 12, FALSE) &amp; " * " &amp; ROUND(B13, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "² = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 12, FALSE) * ROUND(B13, B10) * ROUND(B5^2, B10), B10) &amp; " kN")</f>
-        <v>0.044 * 5.245 kN * 0.8² = 0.148 kN</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="53">
-        <f>VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 13, FALSE) * B13 * B5^2</f>
-        <v>0.15105600000000002</v>
-      </c>
-      <c r="C67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="19" t="str">
-        <f>IF(B67=0, "", VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 13, FALSE) &amp; " * " &amp; ROUND(B13, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "² = " &amp; ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$X$7, 13, FALSE) * ROUND(B13, B10) * ROUND(B5^2, B10), B10) &amp; " kN")</f>
-        <v>0.045 * 5.245 kN * 0.8² = 0.151 kN</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="53">
-        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 14, FALSE) * $B$13 * $B$5^2</f>
-        <v>-0.35447808000000008</v>
-      </c>
-      <c r="C68" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68" s="19" t="str">
-        <f>IF(B68=0, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 14, FALSE) &amp; " * " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 14, FALSE) * ROUND($B$13, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
-        <v>-0.1056 * 5.245 kN * 0.8² = -0.354 kN</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="53">
-        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 15, FALSE) * $B$13 * $B$5^2</f>
-        <v>-0.26015200000000005</v>
-      </c>
-      <c r="C69" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="19" t="str">
-        <f>IF(B69=0, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 15, FALSE) &amp; " * " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 15, FALSE) * ROUND($B$13, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
-        <v>-0.0775 * 5.245 kN * 0.8² = -0.26 kN</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="53">
-        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 16, FALSE) * $B$13 * $B$5^2</f>
-        <v>-0.28364960000000011</v>
-      </c>
-      <c r="C70" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="19" t="str">
-        <f>IF(B70=0, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 16, FALSE) &amp; " * " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 16, FALSE) * ROUND($B$13, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
-        <v>-0.0845 * 5.245 kN * 0.8² = -0.284 kN</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="53">
-        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 17, FALSE) * $B$13 * $B$5^2</f>
-        <v>-0.28364960000000011</v>
-      </c>
-      <c r="C71" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="19" t="str">
-        <f>IF(B71=0, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 17, FALSE) &amp; " * " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 17, FALSE) * ROUND($B$13, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
-        <v>-0.0845 * 5.245 kN * 0.8² = -0.284 kN</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="53">
-        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 18, FALSE) * $B$13 * $B$5^2</f>
-        <v>-0.26015200000000005</v>
-      </c>
-      <c r="C72" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="19" t="str">
-        <f>IF(B72=0, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 18, FALSE) &amp; " * " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 18, FALSE) * ROUND($B$13, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
-        <v>-0.0775 * 5.245 kN * 0.8² = -0.26 kN</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A73" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="55">
-        <f>VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 19, FALSE) * $B$13 * $B$5^2</f>
-        <v>-0.35447808000000008</v>
-      </c>
-      <c r="C73" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="23" t="str">
-        <f>IF(B73=0, "", VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 19, FALSE) &amp; " * " &amp; ROUND($B$13, B10) &amp; " kN * " &amp; ROUND($B$5, B10) &amp; "² = " &amp; ROUND(VLOOKUP($B$4, 'Durchlaufende Träger'!$A$2:$X$7, 19, FALSE) * ROUND($B$13, B10) * ROUND($B$5^2, B10), B10) &amp; " kN")</f>
-        <v>-0.1056 * 5.245 kN * 0.8² = -0.354 kN</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A74" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="70" cm="1">
-        <f t="array" ref="B74">_xlfn.AGGREGATE(14, 6, ABS(ROUND(B64:B73, B10)), 1)</f>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="C74" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="41"/>
-    </row>
-    <row r="75" spans="1:4" ht="15.95" thickBot="1"/>
-    <row r="76" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A76" s="13" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="52" t="s">
+      <c r="B81" s="53">
+        <f>(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$T$7, 20, FALSE) * B14 * B5^4) / (B9) * 1000</f>
+        <v>50700</v>
+      </c>
+      <c r="C81" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="53">
-        <f>(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$T$7, 20, FALSE) * B13 * B5^4) / (B9) * 1000</f>
-        <v>3.103175111111112E-2</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D81" s="25" t="str">
+        <f>IF(B81=0, "", " (" &amp; VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$T$7, 20, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "⁴) / " &amp; ROUND(B9, B10) &amp; " * 1000 = " &amp; ROUND((ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$T$7, 20, FALSE), B10) * ROUND(B14, B10) * ROUND(B5^4, B10)) / ROUND(B9, B10) * 1000, B10) &amp; " mm")</f>
+        <v xml:space="preserve"> (0.0065 * 351 kN * 10⁴) / 450 * 1000 = 54600 mm</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D77" s="25" t="str">
-        <f>IF(B77=0, "", " (" &amp; VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$T$7, 20, FALSE) &amp; " * " &amp; ROUND(B13, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "⁴) / " &amp; ROUND(B9, B10) &amp; " * 1000 = " &amp; ROUND((ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$T$7, 20, FALSE), B10) * ROUND(B13, B10) * ROUND(B5^4, B10)) / ROUND(B9, B10) * 1000, B10) &amp; " mm")</f>
-        <v xml:space="preserve"> (0.0065 * 5.245 kN * 0.8⁴) / 450 * 1000 = 0.033 mm</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="52" t="s">
+      <c r="B82" s="53">
+        <f>(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$U$7, 21, FALSE) * B14 * B5^4) / (B9) * 1000</f>
+        <v>14820.000000000002</v>
+      </c>
+      <c r="C82" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="19" t="str">
+        <f>IF(B82=0, "", " (" &amp; VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$U$7, 21, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "⁴) / " &amp; ROUND(B9, B10) &amp; " * 1000 = " &amp; ROUND((ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$U$7, 21, FALSE), B10) * ROUND(B14, B10) * ROUND(B5^4, B10)) / ROUND(B9, B10) * 1000, B10) &amp; " mm")</f>
+        <v xml:space="preserve"> (0.0019 * 351 kN * 10⁴) / 450 * 1000 = 15600 mm</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="53">
-        <f>(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$U$7, 21, FALSE) * B13 * B5^4) / (B9) * 1000</f>
-        <v>7.6385848888888917E-3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="19" t="str">
-        <f>IF(B78=0, "", " (" &amp; VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$U$7, 21, FALSE) &amp; " * " &amp; ROUND(B13, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "⁴) / " &amp; ROUND(B9, B10) &amp; " * 1000 = " &amp; ROUND((ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$U$7, 21, FALSE), B10) * ROUND(B13, B10) * ROUND(B5^4, B10)) / ROUND(B9, B10) * 1000, B10) &amp; " mm")</f>
-        <v xml:space="preserve"> (0.0016 * 5.245 kN * 0.8⁴) / 450 * 1000 = 0.01 mm</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="52" t="s">
+      <c r="B83" s="53">
+        <f>(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$V$7, 22, FALSE) * B14 * B5^4) / (B9) * 1000</f>
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="19" t="str">
+        <f>IF(B83=0, "", " (" &amp; VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$V$7, 22, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "⁴) / " &amp; ROUND(B9, B10) &amp; " * 1000 = " &amp; ROUND((ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$V$7, 22, FALSE), B10) * ROUND(B14, B10) * ROUND(B5^4, B10)) / ROUND(B9, B10) * 1000, B10) &amp; " mm")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="53">
-        <f>(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$V$7, 22, FALSE) * B13 * B5^4) / (B9) * 1000</f>
-        <v>1.3844935111111116E-2</v>
-      </c>
-      <c r="C79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" s="19" t="str">
-        <f>IF(B79=0, "", " (" &amp; VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$V$7, 22, FALSE) &amp; " * " &amp; ROUND(B13, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "⁴) / " &amp; ROUND(B9, B10) &amp; " * 1000 = " &amp; ROUND((ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$V$7, 22, FALSE), B10) * ROUND(B13, B10) * ROUND(B5^4, B10)) / ROUND(B9, B10) * 1000, B10) &amp; " mm")</f>
-        <v xml:space="preserve"> (0.0029 * 5.245 kN * 0.8⁴) / 450 * 1000 = 0.014 mm</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A80" s="20" t="s">
+      <c r="B84" s="55">
+        <f>(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$W$7, 23, FALSE) * B13 * B5^4) / (B9) * 1000</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" s="23" t="str">
+        <f>IF(B84=0, "", " (" &amp; VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$W$7, 23, FALSE) &amp; " * " &amp; ROUND(B14, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "⁴) / " &amp; ROUND(B9, B10) &amp; " * 1000 = " &amp; ROUND((ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$W$7, 23, FALSE), B10) * ROUND(B14, B10) * ROUND(B5^4, B10)) / ROUND(B9, B10) * 1000, B10) &amp; " mm")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B80" s="55">
-        <f>(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$W$7, 23, FALSE) * B13 * B5^4) / (B9) * 1000</f>
-        <v>1.1457877333333337E-2</v>
-      </c>
-      <c r="C80" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D80" s="23" t="str">
-        <f>IF(B80=0, "", " (" &amp; VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$W$7, 23, FALSE) &amp; " * " &amp; ROUND(B13, B10) &amp; " kN * " &amp; ROUND(B5, B10) &amp; "⁴) / " &amp; ROUND(B9, B10) &amp; " * 1000 = " &amp; ROUND((ROUND(VLOOKUP(B4, 'Durchlaufende Träger'!$A$2:$W$7, 23, FALSE), B10) * ROUND(B13, B10) * ROUND(B5^4, B10)) / ROUND(B9, B10) * 1000, B10) &amp; " mm")</f>
-        <v xml:space="preserve"> (0.0024 * 5.245 kN * 0.8⁴) / 450 * 1000 = 0.01 mm</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.95" thickBot="1">
-      <c r="A81" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="70" cm="1">
-        <f t="array" ref="B81">_xlfn.AGGREGATE(14,6,ABS(B77:B80),1)</f>
-        <v>3.103175111111112E-2</v>
-      </c>
-      <c r="C81" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D81" s="41"/>
+      <c r="B85" s="70" cm="1">
+        <f t="array" ref="B85">_xlfn.AGGREGATE(14,6,ABS(B81:B84),1)</f>
+        <v>50700</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3U4qFH8M14xnc+31B1XTIm8VQokndUUH+Ocy4bbMFuHjwuzS3SZLSN+X573OmAPwn9YfBHKXAZrQu+FNpp3aqQ==" saltValue="p/YJk1TLx9q7q+X7Lm1yfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{39B95420-22E2-43B5-A64A-93ACEB116B91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="B32" formula="1"/>
+    <ignoredError sqref="B33" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <extLst>
@@ -3549,249 +4020,542 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F95CAF-E263-1F45-A037-C8BCEEDA51AA}">
-  <dimension ref="A1:C16"/>
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="12">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:D11">_xlfn._xlws.FILTER(C2:C17, B2:B17&lt;&gt;"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="8">
-        <f>IF(ISNUMBER(B2), 1, #N/A)</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <f>IF(ISNUMBER(Berechnungen!B28), Berechnungen!B28, "")</f>
-        <v>1.6532240000000002</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8">
-        <f>IF(ISNUMBER(B3), 2, "")</f>
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
       <c r="B3" s="10">
         <f>IF(ISNUMBER(Berechnungen!B29), Berechnungen!B29, "")</f>
-        <v>-2.5427760000000004</v>
+        <v>1379.43</v>
       </c>
       <c r="C3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="8">
-        <f>IF(ISNUMBER(B4), 2, "")</f>
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
       <c r="B4" s="10">
         <f>IF(ISNUMBER(Berechnungen!B30), Berechnungen!B30, "")</f>
-        <v>2.2154880000000001</v>
+        <v>-2130.5699999999997</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8">
-        <f>IF(ISNUMBER(B5), 3, "")</f>
-        <v>3</v>
-      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
       <c r="B5" s="10">
-        <f>IF(ISNUMBER(Berechnungen!B31),Berechnungen!B31, "")</f>
-        <v>-1.9805120000000005</v>
+        <f>IF(ISNUMBER(Berechnungen!B31), Berechnungen!B31, "")</f>
+        <v>1881.3600000000001</v>
       </c>
       <c r="C5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8">
-        <f>IF(ISNUMBER(B6), 3, "")</f>
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
       <c r="B6" s="10">
-        <f>IF(ISNUMBER(Berechnungen!B32), Berechnungen!B32, "")</f>
-        <v>2.0686279999999999</v>
+        <f>IF(ISNUMBER(Berechnungen!B32),Berechnungen!B32, "")</f>
+        <v>-1628.6399999999999</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8">
-        <f>IF(ISNUMBER(B7), 4, "")</f>
-        <v>4</v>
-      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
       <c r="B7" s="10">
         <f>IF(ISNUMBER(Berechnungen!B33), Berechnungen!B33, "")</f>
-        <v>-2.1273720000000007</v>
+        <v>1628.6400000000003</v>
       </c>
       <c r="C7" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="8">
-        <f>IF(ISNUMBER(B8), 4, "")</f>
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
       <c r="B8" s="10">
         <f>IF(ISNUMBER(Berechnungen!B34), Berechnungen!B34, "")</f>
-        <v>2.0979999999999994</v>
+        <v>-1881.3599999999997</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="8">
-        <f>IF(ISNUMBER(B9),5, "")</f>
-        <v>5</v>
-      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
       <c r="B9" s="10">
         <f>IF(ISNUMBER(Berechnungen!B35), Berechnungen!B35, "")</f>
-        <v>-2.0980000000000012</v>
+        <v>2130.5700000000002</v>
       </c>
       <c r="C9" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="8">
-        <f>IF(ISNUMBER(B10), 5, "")</f>
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
       <c r="B10" s="10">
         <f>IF(ISNUMBER(Berechnungen!B36), Berechnungen!B36, "")</f>
-        <v>2.1273719999999989</v>
+        <v>-1379.4299999999998</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="8">
-        <f>IF(ISNUMBER(B11), 6, "")</f>
-        <v>6</v>
-      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
       <c r="B11" s="10">
         <f>IF(ISNUMBER(Berechnungen!B37), Berechnungen!B37, "")</f>
-        <v>-2.0686280000000017</v>
+        <v>0</v>
       </c>
       <c r="C11" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="8">
-        <f>IF(ISNUMBER(B12), 6, "")</f>
-        <v>6</v>
-      </c>
-      <c r="B12" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10" t="str">
         <f>IF(ISNUMBER(Berechnungen!B38), Berechnungen!B38, "")</f>
-        <v>1.9805119999999987</v>
+        <v/>
       </c>
       <c r="C12" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="8">
-        <f>IF(ISNUMBER(B13), 7, "")</f>
-        <v>7</v>
-      </c>
-      <c r="B13" s="10">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="10" t="str">
         <f>IF(ISNUMBER(Berechnungen!B39), Berechnungen!B39, "")</f>
-        <v>-2.2154880000000019</v>
+        <v/>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="8">
-        <f>IF(ISNUMBER(B14), 7, "")</f>
-        <v>7</v>
-      </c>
-      <c r="B14" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="10" t="str">
         <f>IF(ISNUMBER(Berechnungen!B40), Berechnungen!B40, "")</f>
-        <v>2.5427759999999986</v>
+        <v/>
       </c>
       <c r="C14" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="8">
-        <f>IF(ISNUMBER(B15), 8, "")</f>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10" t="str">
+        <f>IF(ISNUMBER(Berechnungen!B41), Berechnungen!B41, "")</f>
+        <v/>
+      </c>
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10" t="str">
+        <f>IF(ISNUMBER(Berechnungen!B42), Berechnungen!B42, "")</f>
+        <v/>
+      </c>
+      <c r="C16" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="10">
-        <f>IF(ISNUMBER(Berechnungen!B41), Berechnungen!B41, "")</f>
-        <v>-1.653224000000002</v>
-      </c>
-      <c r="C15" s="5">
+    </row>
+    <row r="17" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="11" t="str">
+        <f>IF(ISNUMBER(Berechnungen!B43), Berechnungen!B43, "")</f>
+        <v/>
+      </c>
+      <c r="C17" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.95" thickBot="1">
-      <c r="A16" s="9">
-        <f>IF(ISNUMBER(B16), 8, "")</f>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="74"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18">
+        <f>MAX(D2:D17)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="74"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="74"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20">
+        <f>SUM(D18:D19)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="73">
+        <v>0</v>
+      </c>
+      <c r="C22" s="73">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B65), -Berechnungen!B65, "")</f>
+        <v>-2709.7200000000003</v>
+      </c>
+      <c r="C23" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" cm="1">
+        <f t="array" ref="E23:E28">_xlfn._xlws.FILTER(B23:B35, B23:B35&lt;&gt;0)</f>
+        <v>-2709.7200000000003</v>
+      </c>
+      <c r="F23" s="73" cm="1">
+        <f t="array" ref="F23:F28">_xlfn._xlws.FILTER(C23:C35, E23:E35&lt;&gt;0)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B72), -Berechnungen!B72, "")</f>
+        <v>3759.21</v>
+      </c>
+      <c r="C24" s="73">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24">
+        <v>3759.21</v>
+      </c>
+      <c r="F24" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B66), -Berechnungen!B66, "")</f>
+        <v>-1277.6400000000001</v>
+      </c>
+      <c r="C25" s="73">
+        <v>2.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25">
+        <v>-1277.6400000000001</v>
+      </c>
+      <c r="F25" s="73">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B73), -Berechnungen!B73, "")</f>
+        <v>2506.1400000000003</v>
+      </c>
+      <c r="C26" s="73">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>2506.1400000000003</v>
+      </c>
+      <c r="F26" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B67), -Berechnungen!B67, "")</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="73">
+        <v>3.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27">
+        <v>-1277.6400000000001</v>
+      </c>
+      <c r="F27" s="73">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B74), -Berechnungen!B74, "")</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="73">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28">
+        <v>-2709.7200000000003</v>
+      </c>
+      <c r="F28" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B68), -Berechnungen!B68, "")</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="73">
+        <v>4.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="73"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B75), -Berechnungen!B75, "")</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="73">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="73"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B69), -Berechnungen!B69, "")</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="73">
+        <v>5.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="73"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B76), -Berechnungen!B76, "")</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="73">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="73"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B70), -Berechnungen!B70, "")</f>
+        <v>-1277.6400000000001</v>
+      </c>
+      <c r="C33" s="73">
+        <v>6.5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="73"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B77), -Berechnungen!B77, "")</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="73">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="73"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="73">
+        <f>IF(ISNUMBER(Berechnungen!B71), -Berechnungen!B71, "")</f>
+        <v>-2709.7200000000003</v>
+      </c>
+      <c r="C35" s="73">
+        <v>7.5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="73"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="73">
+        <v>0</v>
+      </c>
+      <c r="C36" s="73">
         <v>8</v>
       </c>
-      <c r="B16" s="11">
-        <f>IF(ISNUMBER(Berechnungen!B42), Berechnungen!B42, "")</f>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36">
         <v>0</v>
       </c>
-      <c r="C16" s="6">
-        <v>8</v>
+      <c r="F36" s="73">
+        <f>F39</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="73">
+        <f>MAX(F22:F35)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="F39" s="73">
+        <f>SUM(F37:F38)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f>D18</f>
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EYNr+kBEfDozF7h8GmAfBgA+d3hCtGJGfXYyVQ3PSYWaYd/oqXpTF6YxbUvJRm3T6q8VIkRbPusYxN8/+HpbAg==" saltValue="m8HMz8bJFU5yWgKrysgr5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DEC767-76B7-9347-9895-D8212A51281A}">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3799,7 +4563,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3807,7 +4571,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>14</v>
       </c>
@@ -3815,7 +4579,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3823,7 +4587,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>18</v>
       </c>
@@ -3831,7 +4595,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -3839,7 +4603,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>22</v>
       </c>
@@ -3847,7 +4611,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>24</v>
       </c>
@@ -3855,7 +4619,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>26</v>
       </c>
@@ -3863,7 +4627,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>28</v>
       </c>
@@ -3871,7 +4635,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30</v>
       </c>
@@ -3879,7 +4643,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>35</v>
       </c>
@@ -3887,7 +4651,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40</v>
       </c>
@@ -3895,7 +4659,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>45</v>
       </c>
@@ -3903,7 +4667,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50</v>
       </c>
@@ -3912,7 +4676,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S+I3uUn/uXwx9AB11xWShWvERtavsFouNftisc5JEFEiYXPj2WeIlL1NO6+HWHP1ToErRKN5q/g0N+J2v56trQ==" saltValue="d6F9/K5Why1RlC5wSFjG1A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3922,91 +4685,92 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDD1C0F-7DD0-0246-A04C-2F5A6687DD5E}">
+  <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="15" max="19" width="10.85546875" customWidth="1"/>
+    <col min="15" max="19" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="B2" s="3">
         <v>0.375</v>
@@ -4029,7 +4793,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3">
-        <v>0.125</v>
+        <v>-0.125</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -4043,9 +4807,9 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3">
         <v>0.4</v>
@@ -4072,7 +4836,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="O3" s="3">
         <v>0.1</v>
@@ -4090,9 +4854,9 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3">
         <v>0.39300000000000002</v>
@@ -4139,9 +4903,9 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="3">
         <v>0.39500000000000002</v>
@@ -4198,9 +4962,9 @@
       </c>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3">
         <v>0.39400000000000002</v>
@@ -4261,7 +5025,7 @@
       </c>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -4333,7 +5097,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CX3kcSlj2IZKLYNJ418jjcfuz/WyeuJOniaGFCNOkuJegJ8/TK20IJyeMkCNwPb3QVMLG4R5BDyFuINLi5mJhw==" saltValue="t7YMkkec/Va22eiV3GWpTw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4342,26 +5105,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ef9c719c-fe9d-4486-9255-d4120b592cf1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c657e309-7319-46fb-bd9b-210f33c11e44">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB0EC7B54C7FCB42B4FA742D6C99FF2B" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="df5fd87fc57062be50b5c7eb8b53150e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c657e309-7319-46fb-bd9b-210f33c11e44" xmlns:ns3="ef9c719c-fe9d-4486-9255-d4120b592cf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96b80e6e992d64648bcf6cf226fa00e4" ns2:_="" ns3:_="">
     <xsd:import namespace="c657e309-7319-46fb-bd9b-210f33c11e44"/>
@@ -4596,14 +5339,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ef9c719c-fe9d-4486-9255-d4120b592cf1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c657e309-7319-46fb-bd9b-210f33c11e44">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C425051C-4CE5-49DB-8300-60AFE31000DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171B26EC-3D87-4179-8644-199484A9DC8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c657e309-7319-46fb-bd9b-210f33c11e44"/>
+    <ds:schemaRef ds:uri="ef9c719c-fe9d-4486-9255-d4120b592cf1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C9D1BDF-618F-478F-98D4-53518F5260A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C425051C-4CE5-49DB-8300-60AFE31000DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef9c719c-fe9d-4486-9255-d4120b592cf1"/>
+    <ds:schemaRef ds:uri="c657e309-7319-46fb-bd9b-210f33c11e44"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171B26EC-3D87-4179-8644-199484A9DC8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C9D1BDF-618F-478F-98D4-53518F5260A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>